--- a/doc/99.Other/importData/当日委托/当日委托--方正普通.xlsx
+++ b/doc/99.Other/importData/当日委托/当日委托--方正普通.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Source\ncCTM\doc\99.Other\importData\当日委托\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="21">
   <si>
     <t>委托时间</t>
   </si>
@@ -76,6 +76,14 @@
   </si>
   <si>
     <t>买卖委托(已报)</t>
+  </si>
+  <si>
+    <t>交易类别</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>日内</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -996,15 +1004,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="5" max="5" width="14" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1041,8 +1052,11 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>0.59848379629629633</v>
       </c>
@@ -1079,8 +1093,11 @@
       <c r="L2">
         <v>1709</v>
       </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>0.60450231481481487</v>
       </c>
@@ -1117,8 +1134,11 @@
       <c r="L3">
         <v>1757</v>
       </c>
+      <c r="M3" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>0.60478009259259258</v>
       </c>
@@ -1155,8 +1175,11 @@
       <c r="L4">
         <v>1762</v>
       </c>
+      <c r="M4" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>0.60547453703703702</v>
       </c>
@@ -1193,8 +1216,11 @@
       <c r="L5">
         <v>1769</v>
       </c>
+      <c r="M5" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>0.60563657407407401</v>
       </c>
@@ -1231,8 +1257,11 @@
       <c r="L6">
         <v>1771</v>
       </c>
+      <c r="M6" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>0.60570601851851846</v>
       </c>
@@ -1269,8 +1298,11 @@
       <c r="L7">
         <v>1771</v>
       </c>
+      <c r="M7" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>0.60586805555555556</v>
       </c>
@@ -1307,8 +1339,11 @@
       <c r="L8">
         <v>1775</v>
       </c>
+      <c r="M8" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>0.60615740740740742</v>
       </c>
@@ -1345,8 +1380,11 @@
       <c r="L9">
         <v>1777</v>
       </c>
+      <c r="M9" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>0.60853009259259261</v>
       </c>
@@ -1383,8 +1421,11 @@
       <c r="L10">
         <v>1802</v>
       </c>
+      <c r="M10" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>0.60888888888888892</v>
       </c>
@@ -1421,8 +1462,11 @@
       <c r="L11">
         <v>1802</v>
       </c>
+      <c r="M11" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>0.60900462962962965</v>
       </c>
@@ -1459,8 +1503,11 @@
       <c r="L12">
         <v>1807</v>
       </c>
+      <c r="M12" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>0.60910879629629633</v>
       </c>
@@ -1497,8 +1544,11 @@
       <c r="L13">
         <v>1807</v>
       </c>
+      <c r="M13" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>0.61730324074074072</v>
       </c>
@@ -1535,8 +1585,11 @@
       <c r="L14">
         <v>1888</v>
       </c>
+      <c r="M14" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>0.62131944444444442</v>
       </c>
@@ -1573,8 +1626,11 @@
       <c r="L15">
         <v>1907</v>
       </c>
+      <c r="M15" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>0.62245370370370368</v>
       </c>
@@ -1610,10 +1666,14 @@
       </c>
       <c r="L16">
         <v>1921</v>
+      </c>
+      <c r="M16" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>